--- a/0_File/1_Data/005_技能表.xlsx
+++ b/0_File/1_Data/005_技能表.xlsx
@@ -1,21 +1,238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillData" sheetId="1" r:id="rId1"/>
+    <sheet name="#欄位說明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>n_ID</t>
+  </si>
+  <si>
+    <t>n_SkillName</t>
+  </si>
+  <si>
+    <t>n_SkillDescription</t>
+  </si>
+  <si>
+    <t>n_SkillType</t>
+  </si>
+  <si>
+    <t>s_Icon</t>
+  </si>
+  <si>
+    <t>n_ColdDown</t>
+  </si>
+  <si>
+    <t>n_TargetCamp</t>
+  </si>
+  <si>
+    <t>n_SearchRange</t>
+  </si>
+  <si>
+    <t>an_SearchRangeParam</t>
+  </si>
+  <si>
+    <t>n_TargetAmount</t>
+  </si>
+  <si>
+    <t>n_ProjectileID</t>
+  </si>
+  <si>
+    <t>n_DamageProperty</t>
+  </si>
+  <si>
+    <t>n_DamageMultiple</t>
+  </si>
+  <si>
+    <t>n_RangeDamageMultiple</t>
+  </si>
+  <si>
+    <t>an_HitBuffs</t>
+  </si>
+  <si>
+    <t>n_NextSkill</t>
+  </si>
+  <si>
+    <t>s_SkillAtcionName</t>
+  </si>
+  <si>
+    <t>s_SkillEffectName</t>
+  </si>
+  <si>
+    <t>s_SkillEffectPoint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>技能名稱</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能種類</t>
+  </si>
+  <si>
+    <t>技能圖示</t>
+  </si>
+  <si>
+    <t>冷卻時間</t>
+  </si>
+  <si>
+    <t>目標陣營</t>
+  </si>
+  <si>
+    <t>索敵範圍</t>
+  </si>
+  <si>
+    <t>索敵範圍參數</t>
+  </si>
+  <si>
+    <t>目標數量</t>
+  </si>
+  <si>
+    <t>投射物ID</t>
+  </si>
+  <si>
+    <t>傷害類型</t>
+  </si>
+  <si>
+    <t>傷害倍率</t>
+  </si>
+  <si>
+    <t>範圍傷害倍率</t>
+  </si>
+  <si>
+    <t>命中後造成Buff效果</t>
+  </si>
+  <si>
+    <t>下一個技能</t>
+  </si>
+  <si>
+    <t>播放動作時所需的美術資源</t>
+  </si>
+  <si>
+    <t>播放動作所需的特效</t>
+  </si>
+  <si>
+    <t>播放動作所需的特效起始位置</t>
+  </si>
+  <si>
+    <t>反擊子彈 Lv1</t>
+  </si>
+  <si>
+    <t>反擊子彈 Lv2</t>
+  </si>
+  <si>
+    <t>反擊子彈 Lv3</t>
+  </si>
+  <si>
+    <t>時間緩慢 Lv1</t>
+  </si>
+  <si>
+    <t>時間緩慢 Lv2</t>
+  </si>
+  <si>
+    <t>時間緩慢 Lv3</t>
+  </si>
+  <si>
+    <t>治癒術_回復HP Lv1</t>
+  </si>
+  <si>
+    <t>0=友方</t>
+  </si>
+  <si>
+    <t>0=全場地</t>
+  </si>
+  <si>
+    <t>防護罩_獲得護盾值 Lv1</t>
+  </si>
+  <si>
+    <t>1=敵方</t>
+  </si>
+  <si>
+    <t>1=我方全場地</t>
+  </si>
+  <si>
+    <t>加強藥劑_提升攻擊力(短時間) Lv1</t>
+  </si>
+  <si>
+    <t>2=敵方全場地</t>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>SkillData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -23,16 +240,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,23 +337,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +711,816 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:T3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="16.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>10101</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>10102</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>10103</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>10201</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>10202</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>10203</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>20101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>20201</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>20301</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0_File/1_Data/005_技能表.xlsx
+++ b/0_File/1_Data/005_技能表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDataInUnity" sheetId="3" r:id="rId1"/>
     <sheet name="SkillData" sheetId="1" r:id="rId2"/>
     <sheet name="#欄位說明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1016,11 +1016,12 @@
     <col min="12" max="12" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="16.125" style="2"/>
   </cols>
   <sheetData>
@@ -1148,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1470,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1480,7 @@
     <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="7" customWidth="1"/>
     <col min="5" max="16384" width="16.375" style="7"/>
   </cols>
   <sheetData>

--- a/0_File/1_Data/005_技能表.xlsx
+++ b/0_File/1_Data/005_技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
   <si>
     <t>int</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>內容暫定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_SkillAction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能動作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +1009,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1018,7 @@
     <col min="2" max="2" width="15.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="2" bestFit="1" customWidth="1"/>
@@ -1039,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1101,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -1163,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>27</v>
@@ -1464,6 +1476,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
